--- a/biology/Zoologie/Graphium_anthedon/Graphium_anthedon.xlsx
+++ b/biology/Zoologie/Graphium_anthedon/Graphium_anthedon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Graphium anthedon est une espèce de lépidoptères (papillons) de la famille des Papilionidae, que l'on trouve dans les îles de la Sonde en Indonésie.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Plusieurs sous-espèces ont été décrites[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Plusieurs sous-espèces ont été décrites :
 Graphium anthedon anthedon (C. &amp; R. Felder, 1864)
 Graphium anthedon milon (C. &amp; R. Felder, 1865) — Sulawesi, Talaud, Kabaena, Buton, Banggai.
 Graphium anthedon dodingensis (Rothschild, 1896) — Bachan, Ternate, Halmahera.
@@ -548,13 +562,15 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le taxon actuellement appelé Graphium anthedon a été décrit pour la première fois en 1864 par C. Felder &amp; R. Felder sous le nom de Papilio anthedon. Ce taxon a une histoire complexe et entrelacée avec celle de Graphium milon, décrit sous le nom de Papilio milon par les mêmes auteurs en 1865. 
 Kirby (1871: 559) a considéré anthedon et milon comme des synonymes de Papilio sarpedon Linnaeus, 1764.
 Le taxon anthedon a été traité comme une sous-espèce de G. sarpedon par Fujioka et Nishiyama (1997: 189), et aussi comme une sous-espèce de G. milon.
 Le taxon milon a été traité comme une sous-espèce de G. sarpedon par D'Abrera (1982 : 98) et comme une espèce par Tsukada et Nishiyama (1982 : 379). 
-Finalement, en 2003, Vane-Wright &amp; de Jong ont traité Graphium anthedon comme une espèce et milon comme une de ses sous-espèces[2].
+Finalement, en 2003, Vane-Wright &amp; de Jong ont traité Graphium anthedon comme une espèce et milon comme une de ses sous-espèces.
 </t>
         </is>
       </c>
